--- a/core/src/test/resources/yo/dbunitcli/application/multidiff/expect/COMPARE_RESULT.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/multidiff/expect/COMPARE_RESULT.xlsx
@@ -73,10 +73,10 @@
     <t xml:space="preserve">AddColumn</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLUMNS_COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -246,12 +246,12 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.3828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.05"/>
   </cols>
@@ -305,7 +305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -322,7 +322,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -339,10 +339,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -466,13 +466,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -498,7 +498,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
